--- a/Type_Correlation.xlsx
+++ b/Type_Correlation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>route</t>
   </si>
@@ -65,13 +65,19 @@
     <t>lodging</t>
   </si>
   <si>
+    <t>convenience_store</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
     <t>car_repair</t>
   </si>
   <si>
     <t>local_government_office</t>
   </si>
   <si>
-    <t>police</t>
+    <t>airport</t>
   </si>
 </sst>
 </file>
@@ -407,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,7 +421,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -473,223 +479,247 @@
       <c r="T1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>444.134765625</v>
+        <v>582.203125</v>
       </c>
       <c r="C2" t="n">
-        <v>291.36328125</v>
+        <v>375.76953125</v>
       </c>
       <c r="D2" t="n">
-        <v>232.9990234375</v>
+        <v>324.0625</v>
       </c>
       <c r="E2" t="n">
-        <v>45.375</v>
+        <v>45.8125</v>
       </c>
       <c r="F2" t="n">
-        <v>232.9990234375</v>
+        <v>324.0625</v>
       </c>
       <c r="G2" t="n">
-        <v>15.5625</v>
+        <v>30.5234375</v>
       </c>
       <c r="H2" t="n">
-        <v>15.5625</v>
+        <v>30.5234375</v>
       </c>
       <c r="I2" t="n">
-        <v>90.9375</v>
+        <v>97.34375</v>
       </c>
       <c r="J2" t="n">
-        <v>24.875</v>
+        <v>29.5703125</v>
       </c>
       <c r="K2" t="n">
-        <v>19.625</v>
+        <v>15.8125</v>
       </c>
       <c r="L2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M2" t="n">
-        <v>1.5</v>
+        <v>26.34375</v>
       </c>
       <c r="N2" t="n">
-        <v>1.5</v>
+        <v>26.34375</v>
       </c>
       <c r="O2" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P2" t="n">
-        <v>6.5</v>
+        <v>24.0078125</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>10.25</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5</v>
+        <v>8.2578125</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T2" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>298.5</v>
+        <v>387.0234375</v>
       </c>
       <c r="C3" t="n">
-        <v>326.4453125</v>
+        <v>536.396484375</v>
       </c>
       <c r="D3" t="n">
-        <v>195.125</v>
+        <v>268.2265625</v>
       </c>
       <c r="E3" t="n">
-        <v>10.40625</v>
+        <v>11.15625</v>
       </c>
       <c r="F3" t="n">
-        <v>195.125</v>
+        <v>268.2265625</v>
       </c>
       <c r="G3" t="n">
-        <v>13.625</v>
+        <v>32.75</v>
       </c>
       <c r="H3" t="n">
-        <v>13.625</v>
+        <v>32.75</v>
       </c>
       <c r="I3" t="n">
-        <v>78.296875</v>
+        <v>130.078125</v>
       </c>
       <c r="J3" t="n">
-        <v>27.75</v>
+        <v>21.90625</v>
       </c>
       <c r="K3" t="n">
-        <v>27.75</v>
+        <v>14.09375</v>
       </c>
       <c r="L3" t="n">
-        <v>4.65625</v>
+        <v>4.53125</v>
       </c>
       <c r="M3" t="n">
-        <v>32.5</v>
+        <v>47.1875</v>
       </c>
       <c r="N3" t="n">
-        <v>32.5</v>
+        <v>47.1875</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>12.5625</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>7.8125</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3.203125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>184.4375</v>
+        <v>274.890625</v>
       </c>
       <c r="C4" t="n">
-        <v>244.9375</v>
+        <v>326.234375</v>
       </c>
       <c r="D4" t="n">
-        <v>171.171875</v>
+        <v>240.109375</v>
       </c>
       <c r="E4" t="n">
-        <v>4.34375</v>
+        <v>5.40625</v>
       </c>
       <c r="F4" t="n">
-        <v>171.171875</v>
+        <v>240.109375</v>
       </c>
       <c r="G4" t="n">
-        <v>32.4375</v>
+        <v>65.8125</v>
       </c>
       <c r="H4" t="n">
-        <v>32.4375</v>
+        <v>65.8125</v>
       </c>
       <c r="I4" t="n">
-        <v>41.6875</v>
+        <v>69.5</v>
       </c>
       <c r="J4" t="n">
+        <v>17.765625</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8.125</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.71875</v>
+      </c>
+      <c r="M4" t="n">
         <v>13.375</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>13.375</v>
       </c>
-      <c r="L4" t="n">
-        <v>1.9375</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5.8125</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5.8125</v>
-      </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.5</v>
+        <v>11.640625</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5</v>
+        <v>9.640625</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T4" t="n">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.25</v>
+        <v>16.75</v>
       </c>
       <c r="C5" t="n">
-        <v>52.875</v>
+        <v>66.8125</v>
       </c>
       <c r="D5" t="n">
-        <v>11.875</v>
+        <v>19.4375</v>
       </c>
       <c r="E5" t="n">
         <v>0.5</v>
       </c>
       <c r="F5" t="n">
-        <v>11.875</v>
+        <v>19.4375</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>8.625</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>8.625</v>
       </c>
       <c r="I5" t="n">
-        <v>2.75</v>
+        <v>8.375</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -707,261 +737,285 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>184.4375</v>
+        <v>274.890625</v>
       </c>
       <c r="C6" t="n">
-        <v>244.9375</v>
+        <v>326.234375</v>
       </c>
       <c r="D6" t="n">
-        <v>171.171875</v>
+        <v>240.109375</v>
       </c>
       <c r="E6" t="n">
-        <v>4.34375</v>
+        <v>5.40625</v>
       </c>
       <c r="F6" t="n">
-        <v>171.171875</v>
+        <v>240.109375</v>
       </c>
       <c r="G6" t="n">
-        <v>32.4375</v>
+        <v>65.8125</v>
       </c>
       <c r="H6" t="n">
-        <v>32.4375</v>
+        <v>65.8125</v>
       </c>
       <c r="I6" t="n">
-        <v>41.6875</v>
+        <v>69.5</v>
       </c>
       <c r="J6" t="n">
+        <v>17.765625</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.125</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.71875</v>
+      </c>
+      <c r="M6" t="n">
         <v>13.375</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>13.375</v>
       </c>
-      <c r="L6" t="n">
-        <v>1.9375</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5.8125</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5.8125</v>
-      </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>4.5</v>
+        <v>11.640625</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5</v>
+        <v>9.640625</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T6" t="n">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>18.8125</v>
+        <v>42.28125</v>
       </c>
       <c r="C7" t="n">
-        <v>25.5625</v>
+        <v>42.3125</v>
       </c>
       <c r="D7" t="n">
-        <v>47.9375</v>
+        <v>72.125</v>
       </c>
       <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>72.125</v>
+      </c>
+      <c r="G7" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15.3125</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="S7" t="n">
         <v>2.5</v>
       </c>
-      <c r="F7" t="n">
-        <v>47.9375</v>
-      </c>
-      <c r="G7" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="H7" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.0625</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
       <c r="T7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18.8125</v>
+        <v>42.28125</v>
       </c>
       <c r="C8" t="n">
-        <v>25.5625</v>
+        <v>42.3125</v>
       </c>
       <c r="D8" t="n">
-        <v>47.9375</v>
+        <v>72.125</v>
       </c>
       <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>72.125</v>
+      </c>
+      <c r="G8" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="H8" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15.3125</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="S8" t="n">
         <v>2.5</v>
       </c>
-      <c r="F8" t="n">
-        <v>47.9375</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="H8" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.0625</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85.8125</v>
+        <v>101.71875</v>
       </c>
       <c r="C9" t="n">
-        <v>78.3125</v>
+        <v>124.578125</v>
       </c>
       <c r="D9" t="n">
-        <v>53.5</v>
+        <v>86.75</v>
       </c>
       <c r="E9" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="F9" t="n">
-        <v>53.5</v>
+        <v>86.75</v>
       </c>
       <c r="G9" t="n">
-        <v>1.625</v>
+        <v>13</v>
       </c>
       <c r="H9" t="n">
-        <v>1.625</v>
+        <v>13</v>
       </c>
       <c r="I9" t="n">
-        <v>28.4375</v>
+        <v>60.25</v>
       </c>
       <c r="J9" t="n">
-        <v>11.125</v>
+        <v>24.3125</v>
       </c>
       <c r="K9" t="n">
-        <v>11</v>
+        <v>21.6875</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M9" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="N9" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
         <v>0.125</v>
       </c>
       <c r="P9" t="n">
-        <v>0.125</v>
+        <v>3.625</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -969,25 +1023,31 @@
       <c r="T9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25.5</v>
+        <v>31.0625</v>
       </c>
       <c r="C10" t="n">
-        <v>32.5625</v>
+        <v>21.6875</v>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>13.875</v>
       </c>
       <c r="E10" t="n">
         <v>0.5</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>13.875</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -996,13 +1056,13 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>3.125</v>
       </c>
       <c r="K10" t="n">
-        <v>2.5</v>
+        <v>2.125</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1017,54 +1077,60 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22.5</v>
+        <v>22.3125</v>
       </c>
       <c r="C11" t="n">
-        <v>32.5625</v>
+        <v>20.4375</v>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>7.875</v>
       </c>
       <c r="E11" t="n">
         <v>0.5</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>7.875</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>2.125</v>
       </c>
       <c r="K11" t="n">
-        <v>2.5</v>
+        <v>2.125</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1093,25 +1159,31 @@
       <c r="T11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14.5</v>
+        <v>15.5625</v>
       </c>
       <c r="C12" t="n">
-        <v>4.25</v>
+        <v>6.625</v>
       </c>
       <c r="D12" t="n">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1120,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -1155,34 +1227,40 @@
       <c r="T12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.5</v>
+        <v>21.625</v>
       </c>
       <c r="C13" t="n">
-        <v>15.15625</v>
+        <v>40.28125</v>
       </c>
       <c r="D13" t="n">
-        <v>6.5625</v>
+        <v>20.125</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>6.5625</v>
+        <v>20.125</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>6.25</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>6.25</v>
       </c>
       <c r="I13" t="n">
-        <v>7.5</v>
+        <v>7.625</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1191,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>3.5625</v>
+        <v>4.0625</v>
       </c>
       <c r="N13" t="n">
-        <v>3.5625</v>
+        <v>4.0625</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1206,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1217,34 +1295,40 @@
       <c r="T13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.5</v>
+        <v>21.625</v>
       </c>
       <c r="C14" t="n">
-        <v>15.15625</v>
+        <v>40.28125</v>
       </c>
       <c r="D14" t="n">
-        <v>6.5625</v>
+        <v>20.125</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.5625</v>
+        <v>20.125</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>6.25</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>6.25</v>
       </c>
       <c r="I14" t="n">
-        <v>7.5</v>
+        <v>7.625</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1253,13 +1337,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>3.5625</v>
+        <v>4.0625</v>
       </c>
       <c r="N14" t="n">
-        <v>3.5625</v>
+        <v>4.0625</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1268,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1279,8 +1363,14 @@
       <c r="T14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1341,37 +1431,43 @@
       <c r="T15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>14.4375</v>
       </c>
       <c r="C16" t="n">
-        <v>4.25</v>
+        <v>8.375</v>
       </c>
       <c r="D16" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.25</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
-        <v>0.25</v>
+        <v>11.75</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
         <v>0.5</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1389,45 +1485,51 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>10.5</v>
+        <v>17.25</v>
       </c>
       <c r="C17" t="n">
-        <v>7.25</v>
+        <v>4.25</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1442,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1454,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1465,158 +1567,176 @@
       <c r="T17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="C18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
         <v>4</v>
       </c>
-      <c r="D18" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>0.5625</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
         <v>1.5</v>
       </c>
-      <c r="J19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>3.125</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3.125</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1628,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1649,6 +1769,148 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>0</v>
       </c>
     </row>
